--- a/outputs/plan_global_operativo.xlsx
+++ b/outputs/plan_global_operativo.xlsx
@@ -455,7 +455,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>interno</t>
+          <t>externo</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>interno</t>
+          <t>externo</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>interno</t>
+          <t>externo</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>interno</t>
+          <t>externo</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>interno</t>
+          <t>externo</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>interno</t>
+          <t>externo</t>
         </is>
       </c>
     </row>
@@ -575,7 +575,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>interno</t>
+          <t>externo</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>interno</t>
+          <t>externo</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>interno</t>
+          <t>externo</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>interno</t>
+          <t>externo</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>interno</t>
+          <t>externo</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>interno</t>
+          <t>externo</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>interno</t>
+          <t>externo</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>interno</t>
+          <t>externo</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>interno</t>
+          <t>externo</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>interno</t>
+          <t>externo</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>interno</t>
+          <t>externo</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>interno</t>
+          <t>externo</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>interno</t>
+          <t>externo</t>
         </is>
       </c>
     </row>
@@ -830,7 +830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,882 +877,6 @@
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>duerme_en</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Jimmy</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Concepción</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>avion</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Concepción</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Jimmy</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Concepción</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Concepción</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Jimmy</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Concepción</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Concepción</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Coquimbo</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>avion</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>20</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Coquimbo</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Coquimbo</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Coquimbo</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Coquimbo</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Coquimbo</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Coquimbo</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Coquimbo</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Osorno</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>avion</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>20</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Osorno</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Osorno</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Osorno</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Puerto Aysen</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>avion</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>20</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Puerto Aysen</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Puerto Aysen</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Puerto Aysen</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Puerto Aysen</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Puerto Aysen</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Puerto Aysen</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Puerto Aysen</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>11</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Puerto Natales</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>avion</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>20</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Puerto Natales</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>12</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Puerto Natales</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Puerto Natales</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>13</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>San Antonio</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>avion</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>20</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>San Antonio</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>14</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>San Antonio</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>San Antonio</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>15</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Valdivia</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>avion</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>20</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Valdivia</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>16</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Valdivia</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Valdivia</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>17</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>San Vicente</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>avion</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>20</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>San Vicente</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>18</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>San Vicente</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>San Vicente</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>19</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>San Vicente</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E23" t="n">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>San Vicente</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>20</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>San Vicente</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E24" t="n">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>San Vicente</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>21</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>San Vicente</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E25" t="n">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>San Vicente</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>22</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>San Vicente</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E26" t="n">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>San Vicente</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>23</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>San Vicente</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E27" t="n">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>San Vicente</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Luis</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>24</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>San Vicente</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E28" t="n">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>San Vicente</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Orlando</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Calama</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>3</v>
-      </c>
-      <c r="E29" t="n">
-        <v>4</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>terrestre</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Calama</t>
         </is>
       </c>
     </row>
@@ -1767,7 +891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1825,7 +949,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arica</t>
+          <t>Osorno</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1849,16 +973,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.686759493670886</v>
+        <v>1.000224323025156e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>22.08675949367089</v>
+        <v>3.20001000224323</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Puerto Aysen</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1882,16 +1006,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3535696202531646</v>
+        <v>4.2702771991668e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>12.35356962025316</v>
+        <v>3.000042702771992</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Los Ángeles</t>
+          <t>Puerto Natales</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1915,16 +1039,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3589873417721519</v>
+        <v>4.2702771991668e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>6.358987341772152</v>
+        <v>3.000042702771992</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t>Puerto Williams</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1948,16 +1072,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4170632911392405</v>
+        <v>4.2702771991668e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>5.41706329113924</v>
+        <v>3.000042702771992</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Puerto Williams</t>
+          <t>Punta Arenas</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1981,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.686759493670886</v>
+        <v>4.2702771991668e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>4.686759493670886</v>
+        <v>3.000042702771992</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Coronel</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2014,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3589873417721519</v>
+        <v>8.780003204614646e-06</v>
       </c>
       <c r="I7" t="n">
-        <v>4.358987341772152</v>
+        <v>3.000008780003204</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Talca</t>
+          <t>Valparaiso</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2047,16 +1171,16 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3535696202531646</v>
+        <v>8.780003204614646e-06</v>
       </c>
       <c r="I8" t="n">
-        <v>4.353569620253165</v>
+        <v>3.000008780003204</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Copiapó</t>
+          <t>Calama</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2080,16 +1204,16 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3751645569620253</v>
+        <v>3.886172087806442e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>3.775164556962025</v>
+        <v>2.500038861720878</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pichirropulli</t>
+          <t>Iquique</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2113,16 +1237,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3950886075949367</v>
+        <v>3.886172087806442e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>2.895088607594936</v>
+        <v>2.500038861720878</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Romeral</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2146,16 +1270,16 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3468101265822785</v>
+        <v>3.285242749559366e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>2.346810126582278</v>
+        <v>2.500032852427496</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ovalle</t>
+          <t>Castro</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2179,87 +1303,87 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3950886075949367</v>
+        <v>1.0558564332639e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>2.195088607594937</v>
+        <v>2.500010558564333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Luis</t>
+          <t>Puerto Montt</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>INTERNO</t>
+          <t>EXTERNO</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>26.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>76.90666666666668</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>6.860000000000002</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>5.225468354430379</v>
+        <v>1.0558564332639e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>127.3921350210971</v>
+        <v>2.500010558564333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jimmy</t>
+          <t>Pichirropulli</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>INTERNO</t>
+          <t>EXTERNO</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>10.08</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8574999999999999</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3589873417721519</v>
+        <v>1.000224323025156e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>16.09648734177215</v>
+        <v>2.50001000224323</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Orlando</t>
+          <t>Valdivia</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>INTERNO</t>
+          <t>EXTERNO</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -2269,19 +1393,547 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>4.48</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2858333333333333</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1.535037974683544</v>
+        <v>1.000224323025156e-05</v>
       </c>
       <c r="I15" t="n">
-        <v>6.800871308016879</v>
+        <v>2.50001000224323</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mejillones</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8.951129626662394e-06</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.500008951129627</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>9.088287133472201e-06</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.000009088287134</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Concepción</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>9.088287133472201e-06</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.000009088287134</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Coronel</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>9.088287133472201e-06</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.000009088287134</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Los Ángeles</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9.088287133472201e-06</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.000009088287134</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Linares</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8.951129626662394e-06</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.000008951129627</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Talca</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>8.951129626662394e-06</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.000008951129627</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Romeral</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8.780003204614646e-06</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.000008780003204</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>San Fernando</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8.780003204614646e-06</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.000008780003204</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>San Vicente</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>8.780003204614646e-06</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.000008780003204</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Lautaro</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.000224323025156e-05</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.80001000224323</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ovalle</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.000224323025156e-05</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.80001000224323</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>9.320301233776639e-06</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.800009320301234</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Arica</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4.2702771991668e-05</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.700042702771992</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Caldera</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>9.497836885114565e-06</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.700009497836885</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Copiapó</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>9.497836885114565e-06</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.700009497836885</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/plan_global_operativo.xlsx
+++ b/outputs/plan_global_operativo.xlsx
@@ -7,9 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tipo_Ciudad_Final" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Plan_Diario" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Costos_Detalle" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Resumen_Total" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tipo_Ciudad_Final" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Costos_por_Ciudad" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Plan_Diario" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Costos_Detalle" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,384 +440,138 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ciudad</t>
+          <t>metric</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>tipo_final</t>
+          <t>value</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
+          <t>total_uf</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3282.778890822785</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Arica</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
+          <t>total_interno_uf</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>141.3861313291139</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Calama</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
+          <t>total_externo_uf</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3141.39275949367</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Caldera</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
+          <t>materiales_total_uf</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Castro</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
+          <t>gps_total</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>842</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Chillán</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
+          <t>dias_max_proyecto</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Concepción</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
+          <t>dias_semana</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Copiapó</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
+          <t>horas_jornada</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Coquimbo</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
+          <t>tiempo_inst_gps_h</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Coronel</t>
+          <t>nota_unidades</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>externo</t>
+          <t>hh_semana_proyecto se interpreta como DIAS/SEMANA (se multiplica por horas_jornada).</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Iquique</t>
+          <t>nota_viaje</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>externo</t>
+          <t>Opción A: si tv &gt; hh_día =&gt; día solo viaje, duerme destino, instala siguiente día.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lautaro</t>
+          <t>nota_santiago</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>externo</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Linares</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Los Ángeles</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Mejillones</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Osorno</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Ovalle</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Pichirropulli</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Puerto Aysen</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Puerto Montt</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Puerto Natales</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Puerto Williams</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Punta Arenas</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Romeral</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>San Antonio</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>San Fernando</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>San Vicente</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Santiago</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>mixto_scl</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Talca</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Valdivia</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>externo</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Valparaiso</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>externo</t>
+          <t>Santiago es mixto_scl: internos en base pueden instalar parte; remanente va a externo.</t>
         </is>
       </c>
     </row>
@@ -830,7 +586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,42 +597,384 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>tecnico</t>
+          <t>ciudad</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>dia</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ciudad_trabajo</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>horas_instal</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gps_inst</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>viaje_modo_manana</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>viaje_h_manana</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>duerme_en</t>
+          <t>tipo_final</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Antofagasta</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>externo</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Arica</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>externo</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Calama</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>interno</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Caldera</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>externo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>externo</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>interno</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Concepción</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>interno</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Copiapó</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>externo</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>externo</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Coronel</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>externo</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Iquique</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>externo</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Lautaro</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>externo</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Linares</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>externo</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Los Ángeles</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>externo</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mejillones</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>externo</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Osorno</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>externo</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ovalle</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>externo</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Pichirropulli</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>externo</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>interno</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Puerto Montt</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>externo</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Puerto Natales</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>interno</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Puerto Williams</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>externo</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>interno</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Romeral</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>externo</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>San Antonio</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>externo</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>San Fernando</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>externo</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>San Vicente</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>externo</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>mixto_scl</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Talca</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>externo</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Valdivia</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>externo</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Valparaiso</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>externo</t>
         </is>
       </c>
     </row>
@@ -891,7 +989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -902,597 +1000,703 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>responsable</t>
+          <t>ciudad</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>tipo</t>
+          <t>tipo_ciudad_final</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>travel_uf</t>
+          <t>gps_total</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>aloj_uf</t>
+          <t>horas_total</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>alm_uf</t>
+          <t>horas_internas</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>inc_uf</t>
+          <t>horas_externas</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>sueldo_uf</t>
+          <t>gps_externos_est</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>pxq_uf</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>flete_uf</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>total_uf</t>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>materiales_uf</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>total_externo_uf</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Osorno</t>
+          <t>Santiago</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>mixto_scl</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>238.75</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>154.75</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>123.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.000224323025156e-05</v>
+        <v>371.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.20001000224323</v>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>657.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Puerto Aysen</t>
+          <t>Valparaiso</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>externo</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>157.5</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>157.5</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2702771991668e-05</v>
+        <v>378</v>
       </c>
       <c r="I3" t="n">
-        <v>3.000042702771992</v>
+        <v>0.3468101265822785</v>
+      </c>
+      <c r="J3" t="n">
+        <v>189</v>
+      </c>
+      <c r="K3" t="n">
+        <v>567.3468101265823</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Puerto Natales</t>
+          <t>Mejillones</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>externo</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>128.75</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>128.75</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2702771991668e-05</v>
+        <v>257.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.000042702771992</v>
+        <v>0.3535696202531646</v>
+      </c>
+      <c r="J4" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>412.3535696202532</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Puerto Williams</t>
+          <t>Iquique</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>externo</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2702771991668e-05</v>
+        <v>160</v>
       </c>
       <c r="I5" t="n">
-        <v>3.000042702771992</v>
+        <v>1.535037974683544</v>
+      </c>
+      <c r="J5" t="n">
+        <v>96</v>
+      </c>
+      <c r="K5" t="n">
+        <v>257.5350379746835</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Punta Arenas</t>
+          <t>San Vicente</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>externo</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>88.75</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>88.75</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2702771991668e-05</v>
+        <v>142</v>
       </c>
       <c r="I6" t="n">
-        <v>3.000042702771992</v>
+        <v>0.3468101265822785</v>
+      </c>
+      <c r="J6" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>248.8468101265823</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Puerto Montt</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>externo</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>76.25</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>76.25</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="H7" t="n">
-        <v>8.780003204614646e-06</v>
+        <v>152.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.000008780003204</v>
+        <v>0.4170632911392405</v>
+      </c>
+      <c r="J7" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>244.4170632911392</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Valparaiso</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>externo</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>43.75</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>43.75</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
-        <v>8.780003204614646e-06</v>
+        <v>70</v>
       </c>
       <c r="I8" t="n">
-        <v>3.000008780003204</v>
+        <v>0.3468101265822785</v>
+      </c>
+      <c r="J8" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>122.8468101265823</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Calama</t>
+          <t>Lautaro</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>externo</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>43.75</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>43.75</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>3.886172087806442e-05</v>
+        <v>63</v>
       </c>
       <c r="I9" t="n">
-        <v>2.500038861720878</v>
+        <v>0.3950886075949367</v>
+      </c>
+      <c r="J9" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>115.8950886075949</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Iquique</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>externo</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H10" t="n">
-        <v>3.886172087806442e-05</v>
+        <v>55</v>
       </c>
       <c r="I10" t="n">
-        <v>2.500038861720878</v>
+        <v>1.297670886075949</v>
+      </c>
+      <c r="J10" t="n">
+        <v>33</v>
+      </c>
+      <c r="K10" t="n">
+        <v>89.29767088607595</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Punta Arenas</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>interno</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.285242749559366e-05</v>
+        <v>45.59999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>2.500032852427496</v>
+        <v>1.686759493670886</v>
+      </c>
+      <c r="J11" t="n">
+        <v>42</v>
+      </c>
+      <c r="K11" t="n">
+        <v>89.28675949367087</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t>Caldera</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>externo</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H12" t="n">
-        <v>1.0558564332639e-05</v>
+        <v>37.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.500010558564333</v>
+        <v>0.3751645569620253</v>
+      </c>
+      <c r="J12" t="n">
+        <v>33</v>
+      </c>
+      <c r="K12" t="n">
+        <v>70.77516455696203</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Puerto Montt</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>externo</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>1.0558564332639e-05</v>
+        <v>25.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.500010558564333</v>
+        <v>0.3681518987341772</v>
+      </c>
+      <c r="J13" t="n">
+        <v>21</v>
+      </c>
+      <c r="K13" t="n">
+        <v>46.56815189873417</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Pichirropulli</t>
+          <t>Arica</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>externo</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H14" t="n">
-        <v>1.000224323025156e-05</v>
+        <v>20.4</v>
       </c>
       <c r="I14" t="n">
-        <v>2.50001000224323</v>
+        <v>1.686759493670886</v>
+      </c>
+      <c r="J14" t="n">
+        <v>18</v>
+      </c>
+      <c r="K14" t="n">
+        <v>40.08675949367088</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Valdivia</t>
+          <t>Concepción</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>interno</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1.000224323025156e-05</v>
+        <v>14.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.50001000224323</v>
+        <v>0.3589873417721519</v>
+      </c>
+      <c r="J15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>28.25898734177215</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mejillones</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>externo</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>8.951129626662394e-06</v>
+        <v>12</v>
       </c>
       <c r="I16" t="n">
-        <v>2.500008951129627</v>
+        <v>0.3535696202531646</v>
+      </c>
+      <c r="J16" t="n">
+        <v>9</v>
+      </c>
+      <c r="K16" t="n">
+        <v>21.35356962025316</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>externo</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>9.088287133472201e-06</v>
+        <v>12</v>
       </c>
       <c r="I17" t="n">
-        <v>2.000009088287134</v>
+        <v>0.3468101265822785</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>18.34681012658228</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Concepción</t>
+          <t>Puerto Aysen</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>interno</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1501,43 +1705,55 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>9.088287133472201e-06</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.000009088287134</v>
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>15</v>
+      </c>
+      <c r="K18" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Coronel</t>
+          <t>Osorno</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>externo</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>9.088287133472201e-06</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>2.000009088287134</v>
+        <v>0.3950886075949367</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>14.49508860759494</v>
       </c>
     </row>
     <row r="20">
@@ -1548,248 +1764,290 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>externo</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>9.088287133472201e-06</v>
+        <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>2.000009088287134</v>
+        <v>0.3589873417721519</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>10.85898734177215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Castro</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>externo</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>8.951129626662394e-06</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>2.000008951129627</v>
+        <v>0.4170632911392405</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>8.41706329113924</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Talca</t>
+          <t>Valdivia</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>externo</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>8.951129626662394e-06</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.000008951129627</v>
+        <v>0.3950886075949367</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>8.395088607594936</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Romeral</t>
+          <t>Coronel</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>externo</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>8.780003204614646e-06</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.000008780003204</v>
+        <v>0.3589873417721519</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>7.358987341772152</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Talca</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>externo</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>8.780003204614646e-06</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.000008780003204</v>
+        <v>0.3535696202531646</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>7.353569620253165</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>San Vicente</t>
+          <t>Copiapó</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>externo</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>8.780003204614646e-06</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>2.000008780003204</v>
+        <v>0.3751645569620253</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6.775164556962025</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lautaro</t>
+          <t>Puerto Williams</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>externo</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1.000224323025156e-05</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>1.80001000224323</v>
+        <v>1.686759493670886</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>6.186759493670886</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ovalle</t>
+          <t>Calama</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>interno</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1798,31 +2056,37 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1.000224323025156e-05</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.80001000224323</v>
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6</v>
+      </c>
+      <c r="K27" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Coquimbo</t>
+          <t>Puerto Natales</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>interno</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1831,84 +2095,5689 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>9.320301233776639e-06</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.800009320301234</v>
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Arica</t>
+          <t>Pichirropulli</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>externo</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>4.2702771991668e-05</v>
+        <v>2.5</v>
       </c>
       <c r="I29" t="n">
-        <v>1.700042702771992</v>
+        <v>0.3950886075949367</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4.395088607594936</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Caldera</t>
+          <t>Romeral</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>EXTERNO</t>
+          <t>externo</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>9.497836885114565e-06</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>1.700009497836885</v>
+        <v>0.3468101265822785</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.846810126582278</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Ovalle</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>externo</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.3950886075949367</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.695088607594937</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>interno</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I145"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>tecnico</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ciudad_trabajo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>horas_instal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>gps_inst</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>viaje_modo_manana</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>viaje_h_manana</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>duerme_en</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>nota</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Efrain</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>terrestre</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Efrain</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Efrain</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Efrain</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Efrain</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Efrain</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Efrain</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Efrain</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Efrain</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Efrain</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Efrain</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Efrain</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Efrain</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Efrain</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Efrain</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Efrain</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Efrain</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Efrain</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Efrain</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Efrain</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Efrain</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Efrain</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Efrain</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Efrain</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Fabian D.</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>terrestre</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Fabian D.</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fabian D.</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Fabian D.</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Fabian D.</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fabian D.</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fabian D.</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Fabian D.</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>8</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fabian D.</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Fabian D.</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fabian D.</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>11</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Fabian D.</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>12</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Fabian D.</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>13</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Fabian D.</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>14</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Fabian D.</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>15</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Fabian D.</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>16</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Fabian D.</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>17</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Fabian D.</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>18</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fabian D.</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>19</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Fabian D.</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>20</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Fabian D.</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>21</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Fabian D.</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>22</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Fabian D.</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>23</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Fabian D.</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>24</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>terrestre</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>4</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>terrestre</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>15.9497875</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Dia solo viaje (tv&gt;hh_dia)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>6</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>7</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>8</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>9</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>10</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>11</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>12</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>13</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>14</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>15</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>16</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>17</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>18</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>19</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>20</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Puerto Natales</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>terrestre</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>14.6898875</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Puerto Natales</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Dia solo viaje (tv&gt;hh_dia)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>21</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Puerto Natales</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Puerto Natales</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>22</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Puerto Natales</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Puerto Natales</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>23</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Puerto Natales</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Puerto Natales</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>24</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Puerto Natales</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Puerto Natales</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>terrestre</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>3</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>4</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>5</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>6</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>7</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>8</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>9</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>10</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>11</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>12</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>13</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>14</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>15</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>16</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>17</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>18</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>19</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>20</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>21</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>22</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>23</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>24</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Calama</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>terrestre</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Calama</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Calama</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Calama</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>3</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Calama</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Calama</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>4</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Calama</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Calama</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>5</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Calama</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Calama</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>6</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Calama</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Calama</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>7</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>terrestre</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>56.2958375</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Dia solo viaje (tv&gt;hh_dia)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>8</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>9</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>10</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>11</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>12</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>13</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>14</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>15</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>16</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>17</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>18</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>19</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>20</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>21</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>22</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>23</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>24</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Wilmer</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>terrestre</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Wilmer</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>2</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Wilmer</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>3</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Wilmer</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>4</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Wilmer</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>5</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Wilmer</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>6</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Wilmer</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>7</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Wilmer</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>8</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Wilmer</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>9</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Wilmer</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>10</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Wilmer</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>11</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Wilmer</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>12</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Wilmer</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>13</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Wilmer</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>14</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Wilmer</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>15</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Wilmer</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>16</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Wilmer</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>17</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Wilmer</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>18</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Wilmer</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>19</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Wilmer</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>20</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Wilmer</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>21</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Wilmer</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>22</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Wilmer</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>23</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Wilmer</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>24</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>responsable</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tipo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>travel_uf</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>aloj_uf</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>alm_uf</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>inc_uf</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sueldo_uf</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>total_uf</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>657.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Valparaiso</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>567.3468101265823</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mejillones</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>412.3535696202532</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Iquique</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>257.5350379746835</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>San Vicente</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>248.8468101265823</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Puerto Montt</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>244.4170632911392</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>San Fernando</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>122.8468101265823</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lautaro</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>115.8950886075949</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Antofagasta</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>89.29767088607595</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>89.28675949367087</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Caldera</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>70.77516455696203</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>46.56815189873417</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Arica</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>40.08675949367088</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Concepción</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>28.25898734177215</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Linares</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>21.35356962025316</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>San Antonio</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>18.34681012658228</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Puerto Aysen</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Osorno</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>14.49508860759494</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Los Ángeles</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10.85898734177215</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8.41706329113924</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Valdivia</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>8.395088607594936</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Coronel</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7.358987341772152</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Talca</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>7.353569620253165</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>Copiapó</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6.775164556962025</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Puerto Williams</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>6.186759493670886</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Calama</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Puerto Natales</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Pichirropulli</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4.395088607594936</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Romeral</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.846810126582278</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ovalle</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>EXTERNO</t>
@@ -1930,10 +7799,217 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>9.497836885114565e-06</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1.700009497836885</v>
+        <v>3.695088607594937</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>EXTERNO</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>INTERNO</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2.171924050632911</v>
+      </c>
+      <c r="D33" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>11</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.572083333333334</v>
+      </c>
+      <c r="H33" t="n">
+        <v>39.62000738396625</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>INTERNO</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>3.990582278481013</v>
+      </c>
+      <c r="D34" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="E34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.908000000000001</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.643541666666667</v>
+      </c>
+      <c r="H34" t="n">
+        <v>38.84212394514768</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>INTERNO</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>12</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2.016</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.715000000000001</v>
+      </c>
+      <c r="H35" t="n">
+        <v>15.731</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Wilmer</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>INTERNO</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>12</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.016</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.715000000000001</v>
+      </c>
+      <c r="H36" t="n">
+        <v>15.731</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Fabian D.</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>INTERNO</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>12</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2.016</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.715000000000001</v>
+      </c>
+      <c r="H37" t="n">
+        <v>15.731</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Efrain</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>INTERNO</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>12</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.016</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.715000000000001</v>
+      </c>
+      <c r="H38" t="n">
+        <v>15.731</v>
       </c>
     </row>
   </sheetData>
